--- a/natmiOut/OldD7/LR-pairs_lrc2p/Rarres2-Ccrl2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Rarres2-Ccrl2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.59254484752201</v>
+        <v>3.916729333333334</v>
       </c>
       <c r="H2">
-        <v>3.59254484752201</v>
+        <v>11.750188</v>
       </c>
       <c r="I2">
-        <v>0.06297807788014964</v>
+        <v>0.05842616646845182</v>
       </c>
       <c r="J2">
-        <v>0.06297807788014964</v>
+        <v>0.05842616646845181</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.97761355114999</v>
+        <v>2.007593666666667</v>
       </c>
       <c r="N2">
-        <v>1.97761355114999</v>
+        <v>6.022781</v>
       </c>
       <c r="O2">
-        <v>0.03750260536506642</v>
+        <v>0.03411486246698893</v>
       </c>
       <c r="P2">
-        <v>0.03750260536506642</v>
+        <v>0.03411486246698894</v>
       </c>
       <c r="Q2">
-        <v>7.104665373573601</v>
+        <v>7.863201003647557</v>
       </c>
       <c r="R2">
-        <v>7.104665373573601</v>
+        <v>70.76880903282802</v>
       </c>
       <c r="S2">
-        <v>0.002361842001389671</v>
+        <v>0.001993200633544634</v>
       </c>
       <c r="T2">
-        <v>0.002361842001389671</v>
+        <v>0.001993200633544634</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,55 +590,55 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.59254484752201</v>
+        <v>3.916729333333334</v>
       </c>
       <c r="H3">
-        <v>3.59254484752201</v>
+        <v>11.750188</v>
       </c>
       <c r="I3">
-        <v>0.06297807788014964</v>
+        <v>0.05842616646845182</v>
       </c>
       <c r="J3">
-        <v>0.06297807788014964</v>
+        <v>0.05842616646845181</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>49.4423472286432</v>
+        <v>0.464105</v>
       </c>
       <c r="N3">
-        <v>49.4423472286432</v>
+        <v>1.392315</v>
       </c>
       <c r="O3">
-        <v>0.9376032214990422</v>
+        <v>0.007886495413950083</v>
       </c>
       <c r="P3">
-        <v>0.9376032214990422</v>
+        <v>0.007886495413950083</v>
       </c>
       <c r="Q3">
-        <v>177.6238497856563</v>
+        <v>1.817773667246667</v>
       </c>
       <c r="R3">
-        <v>177.6238497856563</v>
+        <v>16.35996300522</v>
       </c>
       <c r="S3">
-        <v>0.05904844870424587</v>
+        <v>0.0004607776939081294</v>
       </c>
       <c r="T3">
-        <v>0.05904844870424587</v>
+        <v>0.0004607776939081294</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.59254484752201</v>
+        <v>3.916729333333334</v>
       </c>
       <c r="H4">
-        <v>3.59254484752201</v>
+        <v>11.750188</v>
       </c>
       <c r="I4">
-        <v>0.06297807788014964</v>
+        <v>0.05842616646845182</v>
       </c>
       <c r="J4">
-        <v>0.06297807788014964</v>
+        <v>0.05842616646845181</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.31273690611563</v>
+        <v>54.02549366666667</v>
       </c>
       <c r="N4">
-        <v>1.31273690611563</v>
+        <v>162.076481</v>
       </c>
       <c r="O4">
-        <v>0.02489417313589132</v>
+        <v>0.9180504584922721</v>
       </c>
       <c r="P4">
-        <v>0.02489417313589132</v>
+        <v>0.9180504584922721</v>
       </c>
       <c r="Q4">
-        <v>4.716066208217692</v>
+        <v>211.6032357920476</v>
       </c>
       <c r="R4">
-        <v>4.716066208217692</v>
+        <v>1904.429122128428</v>
       </c>
       <c r="S4">
-        <v>0.001567787174514093</v>
+        <v>0.053638168914308</v>
       </c>
       <c r="T4">
-        <v>0.001567787174514093</v>
+        <v>0.053638168914308</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -714,55 +714,55 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>48.3801513642568</v>
+        <v>3.916729333333334</v>
       </c>
       <c r="H5">
-        <v>48.3801513642568</v>
+        <v>11.750188</v>
       </c>
       <c r="I5">
-        <v>0.8481143784671781</v>
+        <v>0.05842616646845182</v>
       </c>
       <c r="J5">
-        <v>0.8481143784671781</v>
+        <v>0.05842616646845181</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.97761355114999</v>
+        <v>2.350873333333333</v>
       </c>
       <c r="N5">
-        <v>1.97761355114999</v>
+        <v>7.052619999999999</v>
       </c>
       <c r="O5">
-        <v>0.03750260536506642</v>
+        <v>0.03994818362678892</v>
       </c>
       <c r="P5">
-        <v>0.03750260536506642</v>
+        <v>0.03994818362678893</v>
       </c>
       <c r="Q5">
-        <v>95.67724294464192</v>
+        <v>9.207734543617777</v>
       </c>
       <c r="R5">
-        <v>95.67724294464192</v>
+        <v>82.86961089256</v>
       </c>
       <c r="S5">
-        <v>0.03180649884009316</v>
+        <v>0.002334019226691051</v>
       </c>
       <c r="T5">
-        <v>0.03180649884009316</v>
+        <v>0.002334019226691051</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>48.3801513642568</v>
+        <v>48.53546666666667</v>
       </c>
       <c r="H6">
-        <v>48.3801513642568</v>
+        <v>145.6064</v>
       </c>
       <c r="I6">
-        <v>0.8481143784671781</v>
+        <v>0.7240074597335789</v>
       </c>
       <c r="J6">
-        <v>0.8481143784671781</v>
+        <v>0.7240074597335789</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>49.4423472286432</v>
+        <v>2.007593666666667</v>
       </c>
       <c r="N6">
-        <v>49.4423472286432</v>
+        <v>6.022781</v>
       </c>
       <c r="O6">
-        <v>0.9376032214990422</v>
+        <v>0.03411486246698893</v>
       </c>
       <c r="P6">
-        <v>0.9376032214990422</v>
+        <v>0.03411486246698894</v>
       </c>
       <c r="Q6">
-        <v>2392.028242725901</v>
+        <v>97.43949548871112</v>
       </c>
       <c r="R6">
-        <v>2392.028242725901</v>
+        <v>876.9554593984001</v>
       </c>
       <c r="S6">
-        <v>0.7951947734504841</v>
+        <v>0.02469941491388507</v>
       </c>
       <c r="T6">
-        <v>0.7951947734504841</v>
+        <v>0.02469941491388507</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>48.3801513642568</v>
+        <v>48.53546666666667</v>
       </c>
       <c r="H7">
-        <v>48.3801513642568</v>
+        <v>145.6064</v>
       </c>
       <c r="I7">
-        <v>0.8481143784671781</v>
+        <v>0.7240074597335789</v>
       </c>
       <c r="J7">
-        <v>0.8481143784671781</v>
+        <v>0.7240074597335789</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>1.31273690611563</v>
+        <v>0.464105</v>
       </c>
       <c r="N7">
-        <v>1.31273690611563</v>
+        <v>1.392315</v>
       </c>
       <c r="O7">
-        <v>0.02489417313589132</v>
+        <v>0.007886495413950083</v>
       </c>
       <c r="P7">
-        <v>0.02489417313589132</v>
+        <v>0.007886495413950083</v>
       </c>
       <c r="Q7">
-        <v>63.51041021932034</v>
+        <v>22.52555275733334</v>
       </c>
       <c r="R7">
-        <v>63.51041021932034</v>
+        <v>202.729974816</v>
       </c>
       <c r="S7">
-        <v>0.02111310617660079</v>
+        <v>0.005709881510854519</v>
       </c>
       <c r="T7">
-        <v>0.02111310617660079</v>
+        <v>0.005709881510854519</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -900,60 +900,60 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.07167491620001</v>
+        <v>48.53546666666667</v>
       </c>
       <c r="H8">
-        <v>5.07167491620001</v>
+        <v>145.6064</v>
       </c>
       <c r="I8">
-        <v>0.08890754365267219</v>
+        <v>0.7240074597335789</v>
       </c>
       <c r="J8">
-        <v>0.08890754365267219</v>
+        <v>0.7240074597335789</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.97761355114999</v>
+        <v>54.02549366666667</v>
       </c>
       <c r="N8">
-        <v>1.97761355114999</v>
+        <v>162.076481</v>
       </c>
       <c r="O8">
-        <v>0.03750260536506642</v>
+        <v>0.9180504584922721</v>
       </c>
       <c r="P8">
-        <v>0.03750260536506642</v>
+        <v>0.9180504584922721</v>
       </c>
       <c r="Q8">
-        <v>10.02981304130463</v>
+        <v>2622.152547008712</v>
       </c>
       <c r="R8">
-        <v>10.02981304130463</v>
+        <v>23599.3729230784</v>
       </c>
       <c r="S8">
-        <v>0.003334264523583581</v>
+        <v>0.6646753803602373</v>
       </c>
       <c r="T8">
-        <v>0.003334264523583581</v>
+        <v>0.6646753803602373</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -962,55 +962,55 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.07167491620001</v>
+        <v>48.53546666666667</v>
       </c>
       <c r="H9">
-        <v>5.07167491620001</v>
+        <v>145.6064</v>
       </c>
       <c r="I9">
-        <v>0.08890754365267219</v>
+        <v>0.7240074597335789</v>
       </c>
       <c r="J9">
-        <v>0.08890754365267219</v>
+        <v>0.7240074597335789</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>49.4423472286432</v>
+        <v>2.350873333333333</v>
       </c>
       <c r="N9">
-        <v>49.4423472286432</v>
+        <v>7.052619999999999</v>
       </c>
       <c r="O9">
-        <v>0.9376032214990422</v>
+        <v>0.03994818362678892</v>
       </c>
       <c r="P9">
-        <v>0.9376032214990422</v>
+        <v>0.03994818362678893</v>
       </c>
       <c r="Q9">
-        <v>250.7555122375608</v>
+        <v>114.1007343075555</v>
       </c>
       <c r="R9">
-        <v>250.7555122375608</v>
+        <v>1026.906608768</v>
       </c>
       <c r="S9">
-        <v>0.08335999934431217</v>
+        <v>0.028922782948602</v>
       </c>
       <c r="T9">
-        <v>0.08335999934431217</v>
+        <v>0.028922782948602</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,55 +1024,241 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>14.58505066666667</v>
+      </c>
+      <c r="H10">
+        <v>43.755152</v>
+      </c>
+      <c r="I10">
+        <v>0.2175663737979692</v>
+      </c>
+      <c r="J10">
+        <v>0.2175663737979692</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.007593666666667</v>
+      </c>
+      <c r="N10">
+        <v>6.022781</v>
+      </c>
+      <c r="O10">
+        <v>0.03411486246698893</v>
+      </c>
+      <c r="P10">
+        <v>0.03411486246698894</v>
+      </c>
+      <c r="Q10">
+        <v>29.28085534641245</v>
+      </c>
+      <c r="R10">
+        <v>263.527698117712</v>
+      </c>
+      <c r="S10">
+        <v>0.007422246919559224</v>
+      </c>
+      <c r="T10">
+        <v>0.007422246919559225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>5.07167491620001</v>
-      </c>
-      <c r="H10">
-        <v>5.07167491620001</v>
-      </c>
-      <c r="I10">
-        <v>0.08890754365267219</v>
-      </c>
-      <c r="J10">
-        <v>0.08890754365267219</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1.31273690611563</v>
-      </c>
-      <c r="N10">
-        <v>1.31273690611563</v>
-      </c>
-      <c r="O10">
-        <v>0.02489417313589132</v>
-      </c>
-      <c r="P10">
-        <v>0.02489417313589132</v>
-      </c>
-      <c r="Q10">
-        <v>6.657774838316648</v>
-      </c>
-      <c r="R10">
-        <v>6.657774838316648</v>
-      </c>
-      <c r="S10">
-        <v>0.002213279784776437</v>
-      </c>
-      <c r="T10">
-        <v>0.002213279784776437</v>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>14.58505066666667</v>
+      </c>
+      <c r="H11">
+        <v>43.755152</v>
+      </c>
+      <c r="I11">
+        <v>0.2175663737979692</v>
+      </c>
+      <c r="J11">
+        <v>0.2175663737979692</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.464105</v>
+      </c>
+      <c r="N11">
+        <v>1.392315</v>
+      </c>
+      <c r="O11">
+        <v>0.007886495413950083</v>
+      </c>
+      <c r="P11">
+        <v>0.007886495413950083</v>
+      </c>
+      <c r="Q11">
+        <v>6.768994939653334</v>
+      </c>
+      <c r="R11">
+        <v>60.92095445688</v>
+      </c>
+      <c r="S11">
+        <v>0.001715836209187434</v>
+      </c>
+      <c r="T11">
+        <v>0.001715836209187434</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>14.58505066666667</v>
+      </c>
+      <c r="H12">
+        <v>43.755152</v>
+      </c>
+      <c r="I12">
+        <v>0.2175663737979692</v>
+      </c>
+      <c r="J12">
+        <v>0.2175663737979692</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>54.02549366666667</v>
+      </c>
+      <c r="N12">
+        <v>162.076481</v>
+      </c>
+      <c r="O12">
+        <v>0.9180504584922721</v>
+      </c>
+      <c r="P12">
+        <v>0.9180504584922721</v>
+      </c>
+      <c r="Q12">
+        <v>787.9645624200125</v>
+      </c>
+      <c r="R12">
+        <v>7091.681061780112</v>
+      </c>
+      <c r="S12">
+        <v>0.1997369092177267</v>
+      </c>
+      <c r="T12">
+        <v>0.1997369092177267</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>14.58505066666667</v>
+      </c>
+      <c r="H13">
+        <v>43.755152</v>
+      </c>
+      <c r="I13">
+        <v>0.2175663737979692</v>
+      </c>
+      <c r="J13">
+        <v>0.2175663737979692</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.350873333333333</v>
+      </c>
+      <c r="N13">
+        <v>7.052619999999999</v>
+      </c>
+      <c r="O13">
+        <v>0.03994818362678892</v>
+      </c>
+      <c r="P13">
+        <v>0.03994818362678893</v>
+      </c>
+      <c r="Q13">
+        <v>34.28760667758222</v>
+      </c>
+      <c r="R13">
+        <v>308.58846009824</v>
+      </c>
+      <c r="S13">
+        <v>0.008691381451495873</v>
+      </c>
+      <c r="T13">
+        <v>0.008691381451495875</v>
       </c>
     </row>
   </sheetData>
